--- a/biology/Zoologie/Eukoenenia_patrizii/Eukoenenia_patrizii.xlsx
+++ b/biology/Zoologie/Eukoenenia_patrizii/Eukoenenia_patrizii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eukoenenia patrizii est une espèce de palpigrades de la famille des Eukoeneniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Italie en Sardaigne dans la grotte Grotta del Bue Marino et en Espagne dans la province de Valence[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Italie en Sardaigne dans la grotte Grotta del Bue Marino et en Espagne dans la province de Valence.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Condé en 1993 mesure 1,85 mm et la femelle 1,60 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Condé en 1993 mesure 1,85 mm et la femelle 1,60 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Barranco &amp; Mayoral, 2014[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Barranco &amp; Mayoral, 2014 :
 Eukoenenia patrizii patrizii Condé, 1956 de Sardaigne en Italie
 Eukoenenia patrizii iberica Barranco &amp; Mayoral, 2014 de la province de Valence en Espagne</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Saverio Patrizi[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Saverio Patrizi.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Condé, 1956 : Une Koenenia cavernicole de Sardaigne (Arachnides Microteliphonides). Notes Biospéologiques, vol. 11, p. 13-16.
 Barranco &amp; Mayoral, 2014 : New palpigrades (Arachnida, Eukoeneniidae) from the Iberian Peninsula. Zootaxa, no 3826 (3), p. 544–562.</t>
